--- a/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.88467076091233</v>
+        <v>91.61319615934346</v>
       </c>
       <c r="D2" t="n">
-        <v>19.16680679593775</v>
+        <v>15.36572010924538</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.58301099106433</v>
+        <v>87.24765515783209</v>
       </c>
       <c r="D3" t="n">
-        <v>16.95691664539694</v>
+        <v>18.70204348168214</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.65363266757257</v>
+        <v>90.14396801009913</v>
       </c>
       <c r="D4" t="n">
-        <v>17.47671411207698</v>
+        <v>15.47196473488158</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.16086746056304</v>
+        <v>90.80094229428278</v>
       </c>
       <c r="D5" t="n">
-        <v>17.81870967591474</v>
+        <v>18.25928692469949</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.75054448135836</v>
+        <v>90.89594793305027</v>
       </c>
       <c r="D6" t="n">
-        <v>20.1554150582448</v>
+        <v>16.40045536030201</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.54708792925939</v>
+        <v>86.773386397357</v>
       </c>
       <c r="D7" t="n">
-        <v>18.27748818471453</v>
+        <v>13.58803023001219</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.62643842188093</v>
+        <v>85.63937233869765</v>
       </c>
       <c r="D8" t="n">
-        <v>17.29968250265836</v>
+        <v>19.48713370925539</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.19739017135102</v>
+        <v>84.14278752091467</v>
       </c>
       <c r="D9" t="n">
-        <v>18.78038837818584</v>
+        <v>15.85037862606901</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.70835509017913</v>
+        <v>83.03338275252052</v>
       </c>
       <c r="D10" t="n">
-        <v>20.04168631246383</v>
+        <v>17.13766815201114</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.13694120570068</v>
+        <v>81.4071981231982</v>
       </c>
       <c r="D11" t="n">
-        <v>19.36976138784302</v>
+        <v>16.44360231466682</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.46263250072471</v>
+        <v>83.15574078348527</v>
       </c>
       <c r="D12" t="n">
-        <v>16.61668701069991</v>
+        <v>15.08382569009963</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.75386216966724</v>
+        <v>79.65916152571506</v>
       </c>
       <c r="D13" t="n">
-        <v>17.62895117333515</v>
+        <v>17.20847881216022</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.56816059604846</v>
+        <v>80.86302056013383</v>
       </c>
       <c r="D14" t="n">
-        <v>18.28131337402479</v>
+        <v>15.87267818359424</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>81.01996715555501</v>
+        <v>78.49362038398957</v>
       </c>
       <c r="D15" t="n">
-        <v>19.89482659166266</v>
+        <v>17.18614818538371</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>80.33859379805925</v>
+        <v>77.6400301564711</v>
       </c>
       <c r="D16" t="n">
-        <v>17.58051079035499</v>
+        <v>16.51649442369272</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.16002864453752</v>
+        <v>75.84741594052993</v>
       </c>
       <c r="D17" t="n">
-        <v>18.66898698393855</v>
+        <v>16.15477057432874</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.32806282119627</v>
+        <v>76.51333245509397</v>
       </c>
       <c r="D18" t="n">
-        <v>18.19936839375446</v>
+        <v>19.27113499263758</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.21889247936194</v>
+        <v>75.41221657220976</v>
       </c>
       <c r="D19" t="n">
-        <v>17.37616447094232</v>
+        <v>17.38385792198846</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.14774207497456</v>
+        <v>73.21013413539337</v>
       </c>
       <c r="D20" t="n">
-        <v>18.00986185056905</v>
+        <v>16.1273003988803</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.09707935980748</v>
+        <v>72.87421344697098</v>
       </c>
       <c r="D21" t="n">
-        <v>17.9416633834601</v>
+        <v>18.82369607085183</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.45549212151018</v>
+        <v>71.26914546305503</v>
       </c>
       <c r="D22" t="n">
-        <v>16.814957656817</v>
+        <v>16.91791387829537</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.9206877895395</v>
+        <v>71.7598598204459</v>
       </c>
       <c r="D23" t="n">
-        <v>19.02748858845062</v>
+        <v>15.5005107724505</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>72.12629921264622</v>
+        <v>69.13056052962824</v>
       </c>
       <c r="D24" t="n">
-        <v>17.59504022010154</v>
+        <v>19.42431524556718</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>71.31386407241931</v>
+        <v>67.25420890143737</v>
       </c>
       <c r="D25" t="n">
-        <v>18.90730595536393</v>
+        <v>17.99698262062972</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>70.39047665652322</v>
+        <v>69.46485995045188</v>
       </c>
       <c r="D26" t="n">
-        <v>18.05892019103774</v>
+        <v>16.69198395885914</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.44540500590026</v>
+        <v>68.20190094731088</v>
       </c>
       <c r="D27" t="n">
-        <v>17.92841990542518</v>
+        <v>16.5299843674737</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.1901016778893</v>
+        <v>65.41328446901461</v>
       </c>
       <c r="D28" t="n">
-        <v>18.80708312026987</v>
+        <v>16.86536685849118</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.38463023125998</v>
+        <v>65.82065713960029</v>
       </c>
       <c r="D29" t="n">
-        <v>17.48856147623949</v>
+        <v>15.48568312260186</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.07484185918658</v>
+        <v>60.47361183841014</v>
       </c>
       <c r="D30" t="n">
-        <v>17.74420474838349</v>
+        <v>15.95997381119444</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.03659827280018</v>
+        <v>61.86692286322558</v>
       </c>
       <c r="D31" t="n">
-        <v>16.48595036406334</v>
+        <v>17.53644209203009</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.46356708318595</v>
+        <v>62.00784844954932</v>
       </c>
       <c r="D32" t="n">
-        <v>16.78961301145638</v>
+        <v>16.40543211457242</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.05859418167195</v>
+        <v>57.26084741722286</v>
       </c>
       <c r="D33" t="n">
-        <v>18.32697812313305</v>
+        <v>15.33272193374012</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.67931205552986</v>
+        <v>60.84950077089467</v>
       </c>
       <c r="D34" t="n">
-        <v>18.17733361870322</v>
+        <v>16.64058721769858</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.72412509312655</v>
+        <v>59.46287190925486</v>
       </c>
       <c r="D35" t="n">
-        <v>16.99868551881126</v>
+        <v>15.03552158428433</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.68090670964426</v>
+        <v>57.85881637916006</v>
       </c>
       <c r="D36" t="n">
-        <v>16.91215419138814</v>
+        <v>18.42381659740603</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.87932134681917</v>
+        <v>56.71109431151888</v>
       </c>
       <c r="D37" t="n">
-        <v>19.41075747952021</v>
+        <v>17.31606269577357</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.44356142470255</v>
+        <v>55.24212828674789</v>
       </c>
       <c r="D38" t="n">
-        <v>17.78486003243586</v>
+        <v>16.60828887716697</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>55.32009957041359</v>
+        <v>54.77628033451128</v>
       </c>
       <c r="D39" t="n">
-        <v>18.75134024427969</v>
+        <v>17.53878879734704</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.9573296230695</v>
+        <v>50.49181144868837</v>
       </c>
       <c r="D40" t="n">
-        <v>18.50710165499581</v>
+        <v>16.17166138450424</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.27706716321768</v>
+        <v>53.35839890016477</v>
       </c>
       <c r="D41" t="n">
-        <v>14.88184982451518</v>
+        <v>18.85897520367817</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.96643113758575</v>
+        <v>52.40016964741261</v>
       </c>
       <c r="D42" t="n">
-        <v>16.19387259822003</v>
+        <v>15.58695314827965</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.73090699953896</v>
+        <v>49.25070325876187</v>
       </c>
       <c r="D43" t="n">
-        <v>17.65814611374009</v>
+        <v>16.47793095954207</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.95447080172639</v>
+        <v>49.75391153489611</v>
       </c>
       <c r="D44" t="n">
-        <v>17.37828340368246</v>
+        <v>17.64764361120989</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.400023990377</v>
+        <v>49.56040833164171</v>
       </c>
       <c r="D45" t="n">
-        <v>16.28009148598054</v>
+        <v>17.36664946456375</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.93683604549015</v>
+        <v>48.32716705271731</v>
       </c>
       <c r="D46" t="n">
-        <v>19.04462197778083</v>
+        <v>15.51778658986897</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.1977163782223</v>
+        <v>43.72242377876101</v>
       </c>
       <c r="D47" t="n">
-        <v>18.43775204244465</v>
+        <v>16.9754396310652</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>46.20651218810088</v>
+        <v>43.59489976908353</v>
       </c>
       <c r="D48" t="n">
-        <v>18.56311977131876</v>
+        <v>16.85074310896139</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>46.8544016213749</v>
+        <v>40.72599750407781</v>
       </c>
       <c r="D49" t="n">
-        <v>16.33821283761608</v>
+        <v>18.65743488884012</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.29959396101796</v>
+        <v>42.5492669698532</v>
       </c>
       <c r="D50" t="n">
-        <v>17.95500977817589</v>
+        <v>16.99171942234546</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.34093059328061</v>
+        <v>42.18634652666414</v>
       </c>
       <c r="D51" t="n">
-        <v>18.04602624309088</v>
+        <v>16.97300214968833</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.01304891725102</v>
+        <v>38.42644708059175</v>
       </c>
       <c r="D52" t="n">
-        <v>17.43158343654826</v>
+        <v>16.00092071644595</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.81890767806315</v>
+        <v>38.5037652353766</v>
       </c>
       <c r="D53" t="n">
-        <v>18.42644171941479</v>
+        <v>19.37324447214286</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.52622795258026</v>
+        <v>37.20874875743534</v>
       </c>
       <c r="D54" t="n">
-        <v>14.8485172068419</v>
+        <v>17.14425038564244</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.90495760227023</v>
+        <v>36.83930952599233</v>
       </c>
       <c r="D55" t="n">
-        <v>17.78584543626409</v>
+        <v>16.14740130056291</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.67255893717377</v>
+        <v>34.60054563111566</v>
       </c>
       <c r="D56" t="n">
-        <v>17.0800899170761</v>
+        <v>17.55607958961575</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>32.62641049535037</v>
+        <v>33.61413813320998</v>
       </c>
       <c r="D57" t="n">
-        <v>16.70689988571971</v>
+        <v>17.37275304786068</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.50249230872112</v>
+        <v>34.30905765296631</v>
       </c>
       <c r="D58" t="n">
-        <v>16.05738503145737</v>
+        <v>17.53883641885061</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.85819566081952</v>
+        <v>31.70282919742535</v>
       </c>
       <c r="D59" t="n">
-        <v>17.72302925851804</v>
+        <v>15.0489689468949</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.40033141614268</v>
+        <v>32.79106925199576</v>
       </c>
       <c r="D60" t="n">
-        <v>16.60592780810766</v>
+        <v>17.82253578416019</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>33.61857206678708</v>
+        <v>30.09420164970921</v>
       </c>
       <c r="D61" t="n">
-        <v>14.9427076322835</v>
+        <v>17.67249734350781</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>35.51832436023378</v>
+        <v>28.9324754784758</v>
       </c>
       <c r="D62" t="n">
-        <v>18.76697975160141</v>
+        <v>16.73543407351096</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.72070050048163</v>
+        <v>27.97414811636983</v>
       </c>
       <c r="D63" t="n">
-        <v>17.53305957961919</v>
+        <v>16.72226789167004</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.95938082369353</v>
+        <v>27.64601170867143</v>
       </c>
       <c r="D64" t="n">
-        <v>16.6293097570882</v>
+        <v>14.19169936974238</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>23.29321343850183</v>
+        <v>29.33543740002629</v>
       </c>
       <c r="D65" t="n">
-        <v>16.46374784857565</v>
+        <v>17.33286351289683</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.74629693043723</v>
+        <v>26.8594390326367</v>
       </c>
       <c r="D66" t="n">
-        <v>16.65374275194951</v>
+        <v>17.4041152120498</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.25642576764011</v>
+        <v>24.14425690729039</v>
       </c>
       <c r="D67" t="n">
-        <v>18.30148233239964</v>
+        <v>15.11828804406313</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.10649774791925</v>
+        <v>19.80896707940561</v>
       </c>
       <c r="D68" t="n">
-        <v>16.26632088911322</v>
+        <v>14.89512471681888</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.7162645707758</v>
+        <v>21.69542767020774</v>
       </c>
       <c r="D69" t="n">
-        <v>17.38825167402695</v>
+        <v>17.08997646836251</v>
       </c>
     </row>
   </sheetData>
